--- a/Proyecto Final/Excel/ENTRENADORES.xlsx
+++ b/Proyecto Final/Excel/ENTRENADORES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristhian\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\SQL Taller\SQL Avanzado\Proyecto Final\Proyecto Final\Proyecto Final\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E118E89-910A-42D5-B7D8-F0A7CA264358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A82E6-D231-47C1-BDB7-492490B8858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4428" yWindow="3408" windowWidth="17208" windowHeight="8952" xr2:uid="{AB5D2535-425A-4528-A393-514892502E4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB5D2535-425A-4528-A393-514892502E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Cod_Entrenador</t>
   </si>
@@ -68,12 +67,6 @@
     <t>Junior Aldair Garcia Pasapera</t>
   </si>
   <si>
-    <t>Eder Olmedo Rimarachin</t>
-  </si>
-  <si>
-    <t>Ederrr2802@gmail.com</t>
-  </si>
-  <si>
     <t>agarciapa@nixxuniverse.com</t>
   </si>
   <si>
@@ -90,12 +83,6 @@
   </si>
   <si>
     <t>cpantoja@nixxuniverse.com</t>
-  </si>
-  <si>
-    <t>Milagros Sosa Purisaca</t>
-  </si>
-  <si>
-    <t>sosapurisaca.ma@gmail.com</t>
   </si>
   <si>
     <t>Kristy Effio Chimoy</t>
@@ -157,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93BD5B30-0C8D-4D1B-A712-6EF87CCACA9F}" name="Tabla1" displayName="Tabla1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{93BD5B30-0C8D-4D1B-A712-6EF87CCACA9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93BD5B30-0C8D-4D1B-A712-6EF87CCACA9F}" name="Tabla1" displayName="Tabla1" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{93BD5B30-0C8D-4D1B-A712-6EF87CCACA9F}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{55647E34-C9A4-4595-9F93-37FF12965D64}" name="Cod_Entrenador"/>
     <tableColumn id="3" xr3:uid="{8D12594B-1D17-469A-98BE-E4CAE8EE8685}" name="nombre"/>
@@ -467,20 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644B82DE-F75F-4FBE-91B2-3769331C074A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,10 +498,10 @@
         <v>961427780</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,10 +515,10 @@
         <v>991788988</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,10 +532,10 @@
         <v>913361245</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,10 +549,10 @@
         <v>917555307</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,10 +566,10 @@
         <v>972456789</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,69 +583,34 @@
         <v>972776798</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>16628812</v>
+        <v>73741073</v>
       </c>
       <c r="D8">
-        <v>923357837</v>
+        <v>940994735</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>73191304</v>
-      </c>
-      <c r="D9">
-        <v>962316526</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>73741073</v>
-      </c>
-      <c r="D10">
-        <v>940994735</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{F5CD3085-0AB8-469C-9495-E2B20A387F7E}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{6C885150-2983-4CB4-B0EA-D3CFE8497831}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>